--- a/biology/Botanique/Eryngium_spina-alba/Eryngium_spina-alba.xlsx
+++ b/biology/Botanique/Eryngium_spina-alba/Eryngium_spina-alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le panicaut épine blanche des Alpes (Eryngium spina-alba ou Eryngium spinalba) est une plante vivace de la famille des Apiacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Panicaut épine blanche ou Panicaut blanc des Alpes vit sur les terrains calcaires des Alpes, par exemple dans le massif du Dévoluy. On l'appelle aussi Chardon argenté ou Chardon blanc des Alpes.
 La plante mesure 20 à 40 cm et se caractérise par sa couleur blanc argenté ainsi que son involucre de nombreuses bractées finement découpées.
